--- a/xlsx/环境影响评价_intext.xlsx
+++ b/xlsx/环境影响评价_intext.xlsx
@@ -29,7 +29,7 @@
     <t>环境影响</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_环境影响评价</t>
+    <t>政策_政策_混合动力车辆_环境影响评价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E7%B4%A2%E6%A9%8B</t>
   </si>
   <si>
-    <t>懸索橋</t>
+    <t>悬索桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>行政院環境保護署</t>
+    <t>行政院环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E8%B4%A8%E9%87%8F%E8%AF%84%E4%BB%B7</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商務區</t>
+    <t>中心商务区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E5%8C%BA</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%95%87%E4%BD%93%E7%B3%BB</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%AD%E6%9E%97%E8%AE%BE%E8%AE%A1</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>雅典憲章</t>
+    <t>雅典宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>組合城市</t>
+    <t>组合城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%88%B7%E5%9F%8E%E5%B8%82</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>衛星城市</t>
+    <t>卫星城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>新市鎮</t>
+    <t>新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E9%87%8C%E5%8D%95%E4%BD%8D</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%9F%8E%E5%B8%82</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>雙城</t>
+    <t>双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%9C%B0%E7%90%86%E8%AE%BA</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E6%89%BF%E8%BD%BD%E5%8A%9B</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E9%A2%A8%E6%A8%93</t>
   </si>
   <si>
-    <t>屏風樓</t>
+    <t>屏风楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E5%B0%BE%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>爛尾建築</t>
+    <t>烂尾建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%A0%B5%E5%A1%9E</t>
@@ -479,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AD%A6</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AE%B9%E7%A7%AF%E7%8E%87</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%94%B9%E6%AD%A3</t>
   </si>
   <si>
-    <t>市區改正</t>
+    <t>市区改正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
